--- a/Datasets/Business Analysis/Chapter 10/Example Files/Drugstore Sales.xlsx
+++ b/Datasets/Business Analysis/Chapter 10/Example Files/Drugstore Sales.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\My Books\DADM 5e\Example Files\Chapter 10\Data Only\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JaeW\Dropbox (Personal)\School\UW\Hello-World\Datasets\Business Analysis\Chapter 10\Example Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +88,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +120,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -198,7 +204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -335,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -370,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,14 +591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -560,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -568,141 +614,141 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="261" width="9.140625" style="2"/>
-    <col min="262" max="262" width="12.42578125" style="2" customWidth="1"/>
-    <col min="263" max="517" width="9.140625" style="2"/>
-    <col min="518" max="518" width="12.42578125" style="2" customWidth="1"/>
-    <col min="519" max="773" width="9.140625" style="2"/>
-    <col min="774" max="774" width="12.42578125" style="2" customWidth="1"/>
-    <col min="775" max="1029" width="9.140625" style="2"/>
-    <col min="1030" max="1030" width="12.42578125" style="2" customWidth="1"/>
-    <col min="1031" max="1285" width="9.140625" style="2"/>
-    <col min="1286" max="1286" width="12.42578125" style="2" customWidth="1"/>
-    <col min="1287" max="1541" width="9.140625" style="2"/>
-    <col min="1542" max="1542" width="12.42578125" style="2" customWidth="1"/>
-    <col min="1543" max="1797" width="9.140625" style="2"/>
-    <col min="1798" max="1798" width="12.42578125" style="2" customWidth="1"/>
-    <col min="1799" max="2053" width="9.140625" style="2"/>
-    <col min="2054" max="2054" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2055" max="2309" width="9.140625" style="2"/>
-    <col min="2310" max="2310" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2311" max="2565" width="9.140625" style="2"/>
-    <col min="2566" max="2566" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2567" max="2821" width="9.140625" style="2"/>
-    <col min="2822" max="2822" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2823" max="3077" width="9.140625" style="2"/>
-    <col min="3078" max="3078" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3079" max="3333" width="9.140625" style="2"/>
-    <col min="3334" max="3334" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3335" max="3589" width="9.140625" style="2"/>
-    <col min="3590" max="3590" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3591" max="3845" width="9.140625" style="2"/>
-    <col min="3846" max="3846" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3847" max="4101" width="9.140625" style="2"/>
-    <col min="4102" max="4102" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4103" max="4357" width="9.140625" style="2"/>
-    <col min="4358" max="4358" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4359" max="4613" width="9.140625" style="2"/>
-    <col min="4614" max="4614" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4615" max="4869" width="9.140625" style="2"/>
-    <col min="4870" max="4870" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4871" max="5125" width="9.140625" style="2"/>
-    <col min="5126" max="5126" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5127" max="5381" width="9.140625" style="2"/>
-    <col min="5382" max="5382" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5383" max="5637" width="9.140625" style="2"/>
-    <col min="5638" max="5638" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5639" max="5893" width="9.140625" style="2"/>
-    <col min="5894" max="5894" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5895" max="6149" width="9.140625" style="2"/>
-    <col min="6150" max="6150" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6151" max="6405" width="9.140625" style="2"/>
-    <col min="6406" max="6406" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6407" max="6661" width="9.140625" style="2"/>
-    <col min="6662" max="6662" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6663" max="6917" width="9.140625" style="2"/>
-    <col min="6918" max="6918" width="12.42578125" style="2" customWidth="1"/>
-    <col min="6919" max="7173" width="9.140625" style="2"/>
-    <col min="7174" max="7174" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7175" max="7429" width="9.140625" style="2"/>
-    <col min="7430" max="7430" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7431" max="7685" width="9.140625" style="2"/>
-    <col min="7686" max="7686" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7687" max="7941" width="9.140625" style="2"/>
-    <col min="7942" max="7942" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7943" max="8197" width="9.140625" style="2"/>
-    <col min="8198" max="8198" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8199" max="8453" width="9.140625" style="2"/>
-    <col min="8454" max="8454" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8455" max="8709" width="9.140625" style="2"/>
-    <col min="8710" max="8710" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8711" max="8965" width="9.140625" style="2"/>
-    <col min="8966" max="8966" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8967" max="9221" width="9.140625" style="2"/>
-    <col min="9222" max="9222" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9223" max="9477" width="9.140625" style="2"/>
-    <col min="9478" max="9478" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9479" max="9733" width="9.140625" style="2"/>
-    <col min="9734" max="9734" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9735" max="9989" width="9.140625" style="2"/>
-    <col min="9990" max="9990" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9991" max="10245" width="9.140625" style="2"/>
-    <col min="10246" max="10246" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10247" max="10501" width="9.140625" style="2"/>
-    <col min="10502" max="10502" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10503" max="10757" width="9.140625" style="2"/>
-    <col min="10758" max="10758" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10759" max="11013" width="9.140625" style="2"/>
-    <col min="11014" max="11014" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11015" max="11269" width="9.140625" style="2"/>
-    <col min="11270" max="11270" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11271" max="11525" width="9.140625" style="2"/>
-    <col min="11526" max="11526" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11527" max="11781" width="9.140625" style="2"/>
-    <col min="11782" max="11782" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11783" max="12037" width="9.140625" style="2"/>
-    <col min="12038" max="12038" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12039" max="12293" width="9.140625" style="2"/>
-    <col min="12294" max="12294" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12295" max="12549" width="9.140625" style="2"/>
-    <col min="12550" max="12550" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12551" max="12805" width="9.140625" style="2"/>
-    <col min="12806" max="12806" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12807" max="13061" width="9.140625" style="2"/>
-    <col min="13062" max="13062" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13063" max="13317" width="9.140625" style="2"/>
-    <col min="13318" max="13318" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13319" max="13573" width="9.140625" style="2"/>
-    <col min="13574" max="13574" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13575" max="13829" width="9.140625" style="2"/>
-    <col min="13830" max="13830" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13831" max="14085" width="9.140625" style="2"/>
-    <col min="14086" max="14086" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14087" max="14341" width="9.140625" style="2"/>
-    <col min="14342" max="14342" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14343" max="14597" width="9.140625" style="2"/>
-    <col min="14598" max="14598" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14599" max="14853" width="9.140625" style="2"/>
-    <col min="14854" max="14854" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14855" max="15109" width="9.140625" style="2"/>
-    <col min="15110" max="15110" width="12.42578125" style="2" customWidth="1"/>
-    <col min="15111" max="15365" width="9.140625" style="2"/>
-    <col min="15366" max="15366" width="12.42578125" style="2" customWidth="1"/>
-    <col min="15367" max="15621" width="9.140625" style="2"/>
-    <col min="15622" max="15622" width="12.42578125" style="2" customWidth="1"/>
-    <col min="15623" max="15877" width="9.140625" style="2"/>
-    <col min="15878" max="15878" width="12.42578125" style="2" customWidth="1"/>
-    <col min="15879" max="16133" width="9.140625" style="2"/>
-    <col min="16134" max="16134" width="12.42578125" style="2" customWidth="1"/>
-    <col min="16135" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="261" width="9.109375" style="2"/>
+    <col min="262" max="262" width="12.44140625" style="2" customWidth="1"/>
+    <col min="263" max="517" width="9.109375" style="2"/>
+    <col min="518" max="518" width="12.44140625" style="2" customWidth="1"/>
+    <col min="519" max="773" width="9.109375" style="2"/>
+    <col min="774" max="774" width="12.44140625" style="2" customWidth="1"/>
+    <col min="775" max="1029" width="9.109375" style="2"/>
+    <col min="1030" max="1030" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1031" max="1285" width="9.109375" style="2"/>
+    <col min="1286" max="1286" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1287" max="1541" width="9.109375" style="2"/>
+    <col min="1542" max="1542" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1543" max="1797" width="9.109375" style="2"/>
+    <col min="1798" max="1798" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1799" max="2053" width="9.109375" style="2"/>
+    <col min="2054" max="2054" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2055" max="2309" width="9.109375" style="2"/>
+    <col min="2310" max="2310" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2311" max="2565" width="9.109375" style="2"/>
+    <col min="2566" max="2566" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2567" max="2821" width="9.109375" style="2"/>
+    <col min="2822" max="2822" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2823" max="3077" width="9.109375" style="2"/>
+    <col min="3078" max="3078" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3079" max="3333" width="9.109375" style="2"/>
+    <col min="3334" max="3334" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3335" max="3589" width="9.109375" style="2"/>
+    <col min="3590" max="3590" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3591" max="3845" width="9.109375" style="2"/>
+    <col min="3846" max="3846" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3847" max="4101" width="9.109375" style="2"/>
+    <col min="4102" max="4102" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4103" max="4357" width="9.109375" style="2"/>
+    <col min="4358" max="4358" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4359" max="4613" width="9.109375" style="2"/>
+    <col min="4614" max="4614" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4615" max="4869" width="9.109375" style="2"/>
+    <col min="4870" max="4870" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4871" max="5125" width="9.109375" style="2"/>
+    <col min="5126" max="5126" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5127" max="5381" width="9.109375" style="2"/>
+    <col min="5382" max="5382" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5383" max="5637" width="9.109375" style="2"/>
+    <col min="5638" max="5638" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5639" max="5893" width="9.109375" style="2"/>
+    <col min="5894" max="5894" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5895" max="6149" width="9.109375" style="2"/>
+    <col min="6150" max="6150" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6151" max="6405" width="9.109375" style="2"/>
+    <col min="6406" max="6406" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6407" max="6661" width="9.109375" style="2"/>
+    <col min="6662" max="6662" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6663" max="6917" width="9.109375" style="2"/>
+    <col min="6918" max="6918" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6919" max="7173" width="9.109375" style="2"/>
+    <col min="7174" max="7174" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7175" max="7429" width="9.109375" style="2"/>
+    <col min="7430" max="7430" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7431" max="7685" width="9.109375" style="2"/>
+    <col min="7686" max="7686" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7687" max="7941" width="9.109375" style="2"/>
+    <col min="7942" max="7942" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7943" max="8197" width="9.109375" style="2"/>
+    <col min="8198" max="8198" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8199" max="8453" width="9.109375" style="2"/>
+    <col min="8454" max="8454" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8455" max="8709" width="9.109375" style="2"/>
+    <col min="8710" max="8710" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8711" max="8965" width="9.109375" style="2"/>
+    <col min="8966" max="8966" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8967" max="9221" width="9.109375" style="2"/>
+    <col min="9222" max="9222" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9223" max="9477" width="9.109375" style="2"/>
+    <col min="9478" max="9478" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9479" max="9733" width="9.109375" style="2"/>
+    <col min="9734" max="9734" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9735" max="9989" width="9.109375" style="2"/>
+    <col min="9990" max="9990" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9991" max="10245" width="9.109375" style="2"/>
+    <col min="10246" max="10246" width="12.44140625" style="2" customWidth="1"/>
+    <col min="10247" max="10501" width="9.109375" style="2"/>
+    <col min="10502" max="10502" width="12.44140625" style="2" customWidth="1"/>
+    <col min="10503" max="10757" width="9.109375" style="2"/>
+    <col min="10758" max="10758" width="12.44140625" style="2" customWidth="1"/>
+    <col min="10759" max="11013" width="9.109375" style="2"/>
+    <col min="11014" max="11014" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11015" max="11269" width="9.109375" style="2"/>
+    <col min="11270" max="11270" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11271" max="11525" width="9.109375" style="2"/>
+    <col min="11526" max="11526" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11527" max="11781" width="9.109375" style="2"/>
+    <col min="11782" max="11782" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11783" max="12037" width="9.109375" style="2"/>
+    <col min="12038" max="12038" width="12.44140625" style="2" customWidth="1"/>
+    <col min="12039" max="12293" width="9.109375" style="2"/>
+    <col min="12294" max="12294" width="12.44140625" style="2" customWidth="1"/>
+    <col min="12295" max="12549" width="9.109375" style="2"/>
+    <col min="12550" max="12550" width="12.44140625" style="2" customWidth="1"/>
+    <col min="12551" max="12805" width="9.109375" style="2"/>
+    <col min="12806" max="12806" width="12.44140625" style="2" customWidth="1"/>
+    <col min="12807" max="13061" width="9.109375" style="2"/>
+    <col min="13062" max="13062" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13063" max="13317" width="9.109375" style="2"/>
+    <col min="13318" max="13318" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13319" max="13573" width="9.109375" style="2"/>
+    <col min="13574" max="13574" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13575" max="13829" width="9.109375" style="2"/>
+    <col min="13830" max="13830" width="12.44140625" style="2" customWidth="1"/>
+    <col min="13831" max="14085" width="9.109375" style="2"/>
+    <col min="14086" max="14086" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14087" max="14341" width="9.109375" style="2"/>
+    <col min="14342" max="14342" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14343" max="14597" width="9.109375" style="2"/>
+    <col min="14598" max="14598" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14599" max="14853" width="9.109375" style="2"/>
+    <col min="14854" max="14854" width="12.44140625" style="2" customWidth="1"/>
+    <col min="14855" max="15109" width="9.109375" style="2"/>
+    <col min="15110" max="15110" width="12.44140625" style="2" customWidth="1"/>
+    <col min="15111" max="15365" width="9.109375" style="2"/>
+    <col min="15366" max="15366" width="12.44140625" style="2" customWidth="1"/>
+    <col min="15367" max="15621" width="9.109375" style="2"/>
+    <col min="15622" max="15622" width="12.44140625" style="2" customWidth="1"/>
+    <col min="15623" max="15877" width="9.109375" style="2"/>
+    <col min="15878" max="15878" width="12.44140625" style="2" customWidth="1"/>
+    <col min="15879" max="16133" width="9.109375" style="2"/>
+    <col min="16134" max="16134" width="12.44140625" style="2" customWidth="1"/>
+    <col min="16135" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -713,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -724,7 +770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -735,7 +781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -746,7 +792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -757,7 +803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -768,7 +814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -779,7 +825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -790,7 +836,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -801,7 +847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -812,7 +858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -823,7 +869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -834,7 +880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -845,7 +891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -856,7 +902,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -867,7 +913,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -878,7 +924,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -889,7 +935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -900,7 +946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -911,7 +957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -922,7 +968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -933,7 +979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -944,7 +990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -955,7 +1001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -966,7 +1012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -977,7 +1023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -988,7 +1034,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -999,7 +1045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1010,7 +1056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1021,7 +1067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1032,7 +1078,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1043,7 +1089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1054,7 +1100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1065,7 +1111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1076,7 +1122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1087,7 +1133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1098,7 +1144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1109,7 +1155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1120,7 +1166,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1131,7 +1177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1142,7 +1188,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1153,7 +1199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1164,7 +1210,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1175,7 +1221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1186,7 +1232,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1197,7 +1243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1208,7 +1254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1219,7 +1265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1230,7 +1276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1241,7 +1287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1252,7 +1298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
